--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3667.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3667.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.447742990683692</v>
+        <v>0.8356053233146667</v>
       </c>
       <c r="B1">
-        <v>2.550654175334065</v>
+        <v>0.9433885812759399</v>
       </c>
       <c r="C1">
-        <v>8.117954847255058</v>
+        <v>0.7396496534347534</v>
       </c>
       <c r="D1">
-        <v>2.169119370415984</v>
+        <v>0.6909381151199341</v>
       </c>
       <c r="E1">
-        <v>0.9046688701749582</v>
+        <v>0.7210728526115417</v>
       </c>
     </row>
   </sheetData>
